--- a/src/test/java/day12_WebTable_Excel/ulkeler.xlsx
+++ b/src/test/java/day12_WebTable_Excel/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1783,11 +1783,18 @@
   <si>
     <t>1000000</t>
   </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2242,8 +2249,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2260,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2291,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>573</v>
@@ -2351,6 +2358,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
